--- a/Templates/Use Case specification Template.xlsx
+++ b/Templates/Use Case specification Template.xlsx
@@ -73,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -116,13 +116,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -224,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -452,11 +445,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="3"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -480,36 +510,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -521,67 +557,70 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,7 +934,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -930,10 +971,10 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="11" t="s">
         <v>3</v>
       </c>
@@ -961,61 +1002,61 @@
       <c r="D6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
       <c r="H6" s="19"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="2:9" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="42"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
     </row>
     <row r="8" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="42"/>
       <c r="H8" s="19"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="42"/>
       <c r="H9" s="19"/>
     </row>
     <row r="10" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="41"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="42"/>
       <c r="H10" s="19"/>
     </row>
     <row r="11" spans="2:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
       <c r="H11" s="19"/>
     </row>
     <row r="12" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1027,52 +1068,52 @@
       <c r="H12" s="19"/>
     </row>
     <row r="13" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30"/>
       <c r="H13" s="19"/>
     </row>
     <row r="14" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="36" t="s">
+      <c r="D14" s="48"/>
+      <c r="E14" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="37"/>
+      <c r="F14" s="47"/>
     </row>
     <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="30"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="37"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="2:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="16">
         <v>1</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="45"/>
     </row>
     <row r="17" spans="2:6" s="18" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="17">
         <v>2</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
     </row>
     <row r="18" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
@@ -1082,32 +1123,32 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="2:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="2:6" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
+    <row r="20" spans="2:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+    <row r="22" spans="2:6" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="52"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
@@ -1168,7 +1209,7 @@
       <c r="F30" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="B20:D20"/>
@@ -1185,6 +1226,8 @@
     <mergeCell ref="C14:D15"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:F11"/>
